--- a/inflace.xlsx
+++ b/inflace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsuch\Desktop\diploma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\Desktop\diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C585D0-F379-4DF6-AADC-FDE3AF49634A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB63DD88-1A17-470B-9FD6-815489B0A1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{2CF2B0A2-DB23-45F9-8252-6216D755B6BC}"/>
+    <workbookView xWindow="7665" yWindow="3405" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="2" xr2:uid="{2CF2B0A2-DB23-45F9-8252-6216D755B6BC}"/>
   </bookViews>
   <sheets>
     <sheet name="prvni_table" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="klasika" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">compare_preceed_month!$A$1:$M$27</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">compare_preceed_month!$A$1:$M$28</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">corresp_month_preceed_year!$A$1:$M$27</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">klasika!$A$1:$N$26</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">prvni_table!$A$1:$M$24</definedName>
@@ -291,8 +291,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E96B8ED-86B2-4B96-A87B-8E15D360224F}" name="Table_4" displayName="Table_4" ref="A1:M27" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M27" xr:uid="{8E96B8ED-86B2-4B96-A87B-8E15D360224F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E96B8ED-86B2-4B96-A87B-8E15D360224F}" name="Table_4" displayName="Table_4" ref="A1:M28" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M28" xr:uid="{8E96B8ED-86B2-4B96-A87B-8E15D360224F}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{D0C28D02-BD0D-43E2-BDCE-1497261D90E2}" uniqueName="1" name="Year" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{3BAFA591-0A2C-4AD4-85AC-274327F67180}" uniqueName="2" name="Month 1" queryTableFieldId="2"/>
@@ -636,14 +636,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -725,7 +725,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -766,7 +766,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -807,7 +807,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -889,7 +889,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -930,7 +930,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -971,7 +971,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1617,14 +1617,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1997</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1999</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -2717,18 +2717,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B1F3A7-EA36-4CFE-A57B-320581B4D23A}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1997</v>
       </c>
@@ -2810,7 +2812,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1999</v>
       </c>
@@ -2892,7 +2894,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -3138,7 +3140,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -3220,7 +3222,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -3466,7 +3468,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -3548,7 +3550,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -3630,7 +3632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -3809,6 +3811,41 @@
       </c>
       <c r="E27">
         <v>1.8</v>
+      </c>
+      <c r="F27">
+        <v>1.8</v>
+      </c>
+      <c r="G27">
+        <v>1.6</v>
+      </c>
+      <c r="H27">
+        <v>1.3</v>
+      </c>
+      <c r="I27">
+        <v>0.4</v>
+      </c>
+      <c r="J27">
+        <v>0.8</v>
+      </c>
+      <c r="K27">
+        <v>-1.4</v>
+      </c>
+      <c r="L27">
+        <v>1.2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -3823,17 +3860,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D0C6D6-96E0-4887-B5DD-B0B302D7456F}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3877,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1998</v>
       </c>
@@ -3921,7 +3958,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1999</v>
       </c>
@@ -3965,7 +4002,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -4009,7 +4046,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -4053,7 +4090,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -4097,7 +4134,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -4141,7 +4178,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -4185,7 +4222,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -4229,7 +4266,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2006</v>
       </c>
@@ -4273,7 +4310,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -4317,7 +4354,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -4361,7 +4398,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2009</v>
       </c>
@@ -4405,7 +4442,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -4449,7 +4486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -4493,7 +4530,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -4537,7 +4574,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -4581,7 +4618,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2014</v>
       </c>
@@ -4625,7 +4662,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -4669,7 +4706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2016</v>
       </c>
@@ -4713,7 +4750,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2017</v>
       </c>
@@ -4757,7 +4794,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -4801,7 +4838,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2019</v>
       </c>
@@ -4845,7 +4882,7 @@
         <v>108.3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -4889,7 +4926,7 @@
         <v>111.8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -4933,7 +4970,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
